--- a/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-11-01_OUTPUT.xlsx
+++ b/pdfcreater/excel/RSI横截面_纯多头_sh300_日频_每年重置_2018-11-01_OUTPUT.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\pdfcreater\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>收益率</t>
   </si>
@@ -35,13 +39,13 @@
     <t>2008.01 - 2008.12</t>
   </si>
   <si>
-    <t>2008.03.03 - 2008.11.27</t>
+    <t>2008.02.21 - 2008.11.19</t>
   </si>
   <si>
     <t>2009.01 - 2009.12</t>
   </si>
   <si>
-    <t>2009.02.23 - 2009.03.16</t>
+    <t>2009.07.28 - 2009.09.03</t>
   </si>
   <si>
     <t>2010.01 - 2010.12</t>
@@ -53,7 +57,7 @@
     <t>2011.01 - 2011.12</t>
   </si>
   <si>
-    <t>2011.03.08 - 2011.12.29</t>
+    <t>2011.07.18 - 2011.12.29</t>
   </si>
   <si>
     <t>2012.01 - 2012.12</t>
@@ -65,60 +69,70 @@
     <t>2013.01 - 2013.12</t>
   </si>
   <si>
-    <t>2013.05.27 - 2013.08.19</t>
+    <t>2013.02.08 - 2013.03.14</t>
   </si>
   <si>
     <t>2014.01 - 2014.12</t>
   </si>
   <si>
-    <t>2014.02.19 - 2014.06.26</t>
+    <t>2014.04.10 - 2014.06.26</t>
   </si>
   <si>
     <t>2015.01 - 2015.12</t>
   </si>
   <si>
-    <t>2015.06.12 - 2015.10.08</t>
+    <t>2015.06.12 - 2015.10.15</t>
   </si>
   <si>
     <t>2016.01 - 2016.12</t>
   </si>
   <si>
-    <t>2016.01.06 - 2016.05.31</t>
+    <t>2016.03.21 - 2016.05.31</t>
   </si>
   <si>
     <t>2017.01 - 2017.12</t>
   </si>
   <si>
-    <t>2017.08.08 - 2017.08.25</t>
+    <t>2017.04.13 - 2017.06.06</t>
   </si>
   <si>
     <t>2018.01 - 2018.10</t>
   </si>
   <si>
     <t>2018.01.26 - 2018.10.30</t>
+  </si>
+  <si>
+    <t>HS300收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="fangsong"/>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,33 +148,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,284 +471,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="2" min="2" width="12"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
-    <col customWidth="1" max="4" min="4" width="12"/>
-    <col customWidth="1" max="5" min="5" width="12"/>
-    <col customWidth="1" max="6" min="6" width="23"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>-0.1580218488340928</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>-0.1580218488340928</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>-0.1776235865533278</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>-0.8896445111846112</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>-0.14487791173285419</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.66245399999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.14487791173285419</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1913235776678355</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.75724023927872908</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.8320123389024621</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.5425143620222246</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>-0.1165762733309226</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>7.137064130885763</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>0.86941253996412904</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.89896799999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.59857595500691518</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-8.9746450826614588E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.6874308895377741</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.1648681325752386</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.7968258243593143</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-0.1249047891916027</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1.319950448996255</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.220726734418526</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.115118</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.95142440527556804</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.1140196209752027</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.935866235395838</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.09345554383613097</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.6289024897650102</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>-0.1241340074382173</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>-0.7528601208064976</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>-1.4395855412947189E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.26458500000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.92333198168792441</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-7.7063861162125824E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.18680423217649841</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.04603662165063793</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.5539133221379162</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-0.1555950594778525</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>-0.2958745721434094</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>7.3801125239769672E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.7531000000000007E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.937526388133745</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.12650303316867029</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.8339411626097862E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0.1128919194921818</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.7293375797985386</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-0.08249378404427044</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1.368490011703162</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>0.27289579177554102</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.4662691859095069</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-7.6123666347049035E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.584900791974531</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0.7180719766692369</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.97112643405287</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-0.08244568333322511</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>8.709637031777239</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>0.95004401242272607</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.52185199999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8093334590055061</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-7.5372144261423912E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12.604709892922161</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0.6360844491350195</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>3.861013755167884</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-0.2272767428149917</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>2.798722127291337</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>0.88846643413635396</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.4566999999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.0822648079007848</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.20249040270497429</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.3876965143421494</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>-0.07221435966536149</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>3.50997875951392</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-0.1225268782412664</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>-0.5893756594627748</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>7.6801887102230015E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-4.5830999999999997E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.7797998843097371</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-7.7977511098476948E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.98492355065344095</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0.1988688132921577</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4.406872883391292</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-0.04964846791157063</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>4.005537766973291</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>0.32185577611949889</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.206036</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11.927484966367629</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-3.4794451766339551E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.2502039773727631</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>-0.1146539248448836</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3.786953686173107</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>-0.1582384148752769</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>-0.7245644171502444</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>-3.2715320919179718E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.18013999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.50455814701504</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-8.6397569939740571E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.37866019775784859</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B12">
-    <cfRule priority="1" type="dataBar">
-      <dataBar maxLength="60" showValue="1">
+    <cfRule type="dataBar" priority="2">
+      <dataBar maxLength="60">
         <cfvo type="percentile" val="0"/>
         <cfvo type="percentile" val="99"/>
         <color rgb="FFFF0000"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule priority="2" type="dataBar">
-      <dataBar maxLength="60" showValue="1">
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar maxLength="60">
         <cfvo type="percentile" val="90"/>
         <cfvo type="percentile" val="0"/>
-        <color rgb="FF22ae6b"/>
+        <color rgb="FF22AE6B"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar maxLength="60">
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="99"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>